--- a/Test Case/Sangeetha/Testcase- OutPatient last.xlsx
+++ b/Test Case/Sangeetha/Testcase- OutPatient last.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sangeetha\Mediware\04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sangeetha\Mediware\07-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FB136B-2C21-4FAA-9131-F2C70A6699B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70458609-1D90-4830-A882-F2F5FE3D9382}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0F86180-7D4B-4DF7-AD62-71380A8C5CDD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="189">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -131,223 +131,18 @@
     <t>Step ID</t>
   </si>
   <si>
-    <t>Test case to verify the status of patient (already taken appointment-confirmed) as reserved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-Condition : Patient  should take an appointment -confirmed. </t>
-  </si>
-  <si>
-    <t>Hospital : Testing Marina
-Patient ID : OL00025914
-Dr : Rasha Shehadi</t>
-  </si>
-  <si>
     <t>Open the url of Mediware and navigate to Front office &gt;&gt; Out Patient in Application Selector.</t>
   </si>
   <si>
     <t>Mediware Appselector Pad is launched and redirected to Out Patient page.</t>
   </si>
   <si>
-    <t>http://mediwarecloud.com/mediwareqc/Appselector.aspx</t>
-  </si>
-  <si>
     <t>Select the Appointment List tab on right top of the out patient page.</t>
   </si>
   <si>
     <t>The page is listed with the Today's Appoinments List.</t>
   </si>
   <si>
-    <t>Check the status of the patient in appointment- confirmed</t>
-  </si>
-  <si>
-    <t>1. The status of the patient should be Reserved and the mark arrival option should be enabled.
-2. The confirmed icon should be displayed in the info column.
-3. If the patient is a new patient then the type displayed should be New.
-4.   If the patient is not a new patient then the type displayed should be Revisit.</t>
-  </si>
-  <si>
-    <t>Test case to verify the status of patient (Appoinment -confirmed) as arrived .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-Condition : Patient  should take an appointment-confirmed . </t>
-  </si>
-  <si>
-    <t>Hospital : Testing Marina
-Patient name : Shari
-Age : 30
-Dr : Rasha Shehadi</t>
-  </si>
-  <si>
-    <t>Check the status of the patient in Step 1 .</t>
-  </si>
-  <si>
-    <t>The status of the patient should be Reserved and the mark arrival option should be enabled.</t>
-  </si>
-  <si>
-    <t>Click on the mark arrival icon. 
-Add the details and save.</t>
-  </si>
-  <si>
-    <t>Redirected to registration page.
-All the data entered in Step 1 should be auto populated in the registration page.</t>
-  </si>
-  <si>
-    <t>Check the status of the patient in  Appointment List tab .</t>
-  </si>
-  <si>
-    <t>The status should be Arrived.</t>
-  </si>
-  <si>
-    <t>Test case to verify the status of patient (already taken appointment-standby) as reserved.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-Condition : Patient  should take an appointment -stanby. </t>
-  </si>
-  <si>
-    <t>Hospital : Testing Marina
-Patient name : Shari
-Gender : Female
-Age : 30
-Nationality : UAE
-Emirates : Ajman
-Country of Residence : Yemeni
-Dr : Rasha Shehadi</t>
-  </si>
-  <si>
-    <t>Check the status of the patient in Appointment -stand by</t>
-  </si>
-  <si>
-    <t>1. The status of the patient should be Reserved and the mark arrival option should be enabled.
-2. The standby icon should be displayed in the info column.
-3. If the patient is a new patient then the type displayed should be New.
-4.   If the patient is not a new patient then the type displayed should be Revisit.</t>
-  </si>
-  <si>
-    <t>Test case to verify the status of patient (Appoinment -standby)  as arrived.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-Condition : Patient  should take an Appointment-standby . </t>
-  </si>
-  <si>
-    <t>Hospital : Testing Marina
-Patient name : Megha
-Gender : Female
-Age : 15
-Nationality : UAE
-Emirates : Ajman
-Country of Residence : Yemeni
-Dr : Rasha Shehadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the status of the patient in </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The status should be Arrived.
-</t>
-  </si>
-  <si>
-    <t>Test case to verify the info of  a patient having insurance is updated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Hospital : Testing Marina
-Patient name : Levin
-Gender : MAle
-Age : 15
-Nationality : UAE
-Emirates : Ajman
-Country of Residence : Yemeni
-Dr : Rasha Shehadi</t>
-  </si>
-  <si>
-    <t>Check the status of the patient in appointment -confirmed</t>
-  </si>
-  <si>
-    <t>Click on the mark arrival icon. 
-Add the details  of the insurane and save.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redirected to registration page.
-All the data entered in Step 1 should be auto populated in the registration page.
-Usere should be able to enter the details of insurance and save it. </t>
-  </si>
-  <si>
-    <t>Insurance: Oman Insurance Company
-Policy: Premium
-Policy No: OLP000023456
-Member Id/Card: MKN00000581</t>
-  </si>
-  <si>
-    <r>
-      <t>Check for the info column of the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Out Patient tab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;&gt; of the patient in Appointment Confirmed.</t>
-    </r>
-  </si>
-  <si>
-    <t>The insurance icon should be displayed in the info column.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test case to verify the patient (teleconsulted appointment) has the info icon updated. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hospital : Testing Marina
-Patient name : Levin
-Gender : MAle
-Age : 15
-Nationality : UAE
-Emirates : Ajman
-Country of Residence : Yemeni
-Dr : Rasha Shehadi
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :  The appointment taken is by teleconsultation.</t>
-    </r>
-  </si>
-  <si>
-    <t>1. The status of the patient should be Reserved and the mark arrival option should be enabled.
-2. The teleconsultation icon should be displayed in the info column.</t>
-  </si>
-  <si>
     <t>Verify that user is able to upload image of the patient</t>
   </si>
   <si>
@@ -403,9 +198,6 @@
   </si>
   <si>
     <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Poonima John</t>
   </si>
   <si>
     <t>Select a particular patient  in arrived status and click on link icon</t>
@@ -577,15 +369,9 @@
     <t>Patients bill details will be displayed</t>
   </si>
   <si>
-    <t>select the option  'Billing without consultation'</t>
-  </si>
-  <si>
     <t>user should be able to select the option</t>
   </si>
   <si>
-    <t>verify the box to select the doctor</t>
-  </si>
-  <si>
     <t>Click on save button</t>
   </si>
   <si>
@@ -605,13 +391,309 @@
   </si>
   <si>
     <t>MED_Out Patient_TC_021</t>
+  </si>
+  <si>
+    <t>Verify that the user can delete chief surgeon in the surgery</t>
+  </si>
+  <si>
+    <t>Try to delete added chief surgeon</t>
+  </si>
+  <si>
+    <t>User should be able to delete added chief surgeon</t>
+  </si>
+  <si>
+    <t>Verify the box to select the doctor</t>
+  </si>
+  <si>
+    <t>Select the option  'Billing without consultation'</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_023</t>
+  </si>
+  <si>
+    <t>Verify that the user can add scrub nurse in the surgery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the option Surgery Entry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Selection page should be displayed
+</t>
+  </si>
+  <si>
+    <t>Try to enter Manadatory fields
+Surgery,Theatre,Surgeon,SurgeryDate 
+Click on ADD button</t>
+  </si>
+  <si>
+    <t>Surgery Entry Page 
+should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the manadatory fields
+Theatre
+Surgeon
+Anesthesia Type
+Anestheologist
+Click on SAVE  button
+</t>
+  </si>
+  <si>
+    <t>User should be able 
+to enter required fieilds</t>
+  </si>
+  <si>
+    <t>Go to Resources tab 
+and try to add Scrub Nurses</t>
+  </si>
+  <si>
+    <t>User should be able 
+to add Srub Nurse</t>
+  </si>
+  <si>
+    <t>Verify that the user can delete scrub nurse in the surgery</t>
+  </si>
+  <si>
+    <t>Try to delete scrub nurse from the list</t>
+  </si>
+  <si>
+    <t>User should be able to delete scrub nurse successfully</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_024</t>
+  </si>
+  <si>
+    <t>Go to Resources tab 
+and try to add Circulatory  Nurses</t>
+  </si>
+  <si>
+    <t>User should be able 
+to add Circulatory Nurse</t>
+  </si>
+  <si>
+    <t>Verify that the user can add circulatory nurse in the surgery</t>
+  </si>
+  <si>
+    <t>Sangeetha</t>
+  </si>
+  <si>
+    <t>Verify that the user can delete circulatory nurse in the surgery</t>
+  </si>
+  <si>
+    <t>Try to delete circulatory nursefrom the added list on clicking delete option</t>
+  </si>
+  <si>
+    <t>User should be able to delete added circulatory nurses</t>
+  </si>
+  <si>
+    <t>Verify that user can add other
+staffs in the surgery entry</t>
+  </si>
+  <si>
+    <t>Go to Resources tab 
+and try to add other staffs from the list</t>
+  </si>
+  <si>
+    <t>User should be able 
+to add other staffs</t>
+  </si>
+  <si>
+    <t>Verify that user can delete other
+staffs in the surgery entry</t>
+  </si>
+  <si>
+    <t>Try to delete added staffs from the list</t>
+  </si>
+  <si>
+    <t>User should be able to delete added staff</t>
+  </si>
+  <si>
+    <t>Verify that user can add 
+equipemts in the surgery entry</t>
+  </si>
+  <si>
+    <t>Go to Resources tab 
+and try to add equipments from the list</t>
+  </si>
+  <si>
+    <t>User should be able 
+to add equipments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can add OT Procedures in the surgery </t>
+  </si>
+  <si>
+    <t>Try to delete added equipments</t>
+  </si>
+  <si>
+    <t>User should be able to delete added equipments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can delete OT Procedures in the surgery </t>
+  </si>
+  <si>
+    <t>Go to OT procedure tab</t>
+  </si>
+  <si>
+    <t>User should be able to 
+navigate to OT Procedure tab</t>
+  </si>
+  <si>
+    <t>Try to add Procedure
+From date
+To Date
+Quantity
+Hrs
+Oper%
+Rate
+Discount</t>
+  </si>
+  <si>
+    <t>User should be able to add procedure details
+From date
+To Date
+Quantity
+Hrs
+Oper%
+Rate
+Discount
+Amount should be calculated automatically</t>
+  </si>
+  <si>
+    <t>Try to delete OT procedures</t>
+  </si>
+  <si>
+    <t>User should be able to delete OT procedures successfully</t>
+  </si>
+  <si>
+    <t>Check whether user can edit OP consolidated bill</t>
+  </si>
+  <si>
+    <t>Following Bill options should be displayed and user should be able to add following bills
+Op Bill 
+LRO bill
+Pharmacy Bill
+Surgery Entry</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_022</t>
+  </si>
+  <si>
+    <t>Select  ADD bills button and try to add bills and verify the amount</t>
+  </si>
+  <si>
+    <t>Try to edit OP bill</t>
+  </si>
+  <si>
+    <t>User should be able to edit bill</t>
+  </si>
+  <si>
+    <t>Check whether user can add insurance to the consolidated bill</t>
+  </si>
+  <si>
+    <t>Search details should be displayed 
+OP consolidated bills page should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Insurance Button </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Insurance Selection page should be displayed</t>
+  </si>
+  <si>
+    <t>Click on Add Insurance</t>
+  </si>
+  <si>
+    <t>Add Insurance page shouls be displayed</t>
+  </si>
+  <si>
+    <t>Select the required fields
+Insurance
+Policy
+Scheme
+Valid from
+Valid to
+Member Id
+Click on SAVE</t>
+  </si>
+  <si>
+    <t>User should be able to add Insurance</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_025</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_026</t>
+  </si>
+  <si>
+    <t>Check whether user can clear insurance details from ADD Insurance page</t>
+  </si>
+  <si>
+    <t>Select the required fields
+Insurance
+Policy
+Scheme
+Valid from
+Valid to
+Member Id
+Click on CLEAR button</t>
+  </si>
+  <si>
+    <t>User should be able to clear selected insurance details
+Policy
+Scheme
+Valid from
+Valid to
+Member Id</t>
+  </si>
+  <si>
+    <t>Select Insurance Button on the right pane</t>
+  </si>
+  <si>
+    <t>Check whether user can DESELECT  insurance details from ADD Insurance page</t>
+  </si>
+  <si>
+    <t>Select the required fields
+Insurance
+Policy
+Scheme
+Valid from
+Valid to
+Member Id
+Click on add button</t>
+  </si>
+  <si>
+    <t>User should be able to add selected insurance details
+Policy
+Scheme
+Valid from
+Valid to
+Member Id</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_027</t>
+  </si>
+  <si>
+    <t>Add Insurance page should be displayed</t>
+  </si>
+  <si>
+    <t>Try to deselect added insurance</t>
+  </si>
+  <si>
+    <t>System should display message as"Do you want to deselect insurance"</t>
+  </si>
+  <si>
+    <t>Click on YES on confirmation message</t>
+  </si>
+  <si>
+    <t>User should be able to deselect added insurance.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,14 +740,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -719,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -763,14 +838,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1096,8 +1168,8 @@
   <dimension ref="A1:S722"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F154" sqref="F154"/>
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D256" sqref="D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>4</v>
@@ -1158,14 +1230,14 @@
       <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="R1" s="19" t="s">
+      <c r="P1" s="17"/>
+      <c r="R1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="19"/>
+      <c r="S1" s="18"/>
     </row>
     <row r="2" spans="1:19" s="13" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1174,21 +1246,19 @@
       <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>93</v>
-      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
       <c r="F2" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="I2" s="11"/>
       <c r="J2" s="12"/>
       <c r="K2" s="5"/>
       <c r="L2" s="4"/>
@@ -1198,7 +1268,7 @@
       </c>
       <c r="P2" s="4">
         <f>COUNTA(A:A)-1</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>12</v>
@@ -1214,18 +1284,16 @@
       <c r="C3" s="5"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="I3" s="14"/>
       <c r="J3" s="12"/>
       <c r="K3" s="5"/>
       <c r="L3" s="4"/>
@@ -1251,13 +1319,13 @@
       <c r="C4" s="5"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -1277,15 +1345,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="195" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E5" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L5" s="4"/>
       <c r="R5" s="7" t="s">
@@ -1296,490 +1364,512 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" s="11">
+        <v>5</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="L6" s="4"/>
       <c r="R6" s="7"/>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="15" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="E8" s="11">
+      <c r="G8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="E9" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="E9" s="11">
-        <v>3</v>
-      </c>
       <c r="F9" s="11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="E10" s="11">
-        <v>4</v>
+      <c r="A10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="F10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="E11" s="11">
-        <v>5</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+    <row r="12" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E12" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="F13" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:19" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="11" t="s">
+      <c r="D17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E19" s="11">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E20" s="11">
+        <v>3</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E21" s="11">
+        <v>4</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E22" s="11">
+        <v>5</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E26" s="11">
+        <v>2</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="E15" s="11">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="E16" s="11">
-        <v>2</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="E17" s="11">
+      <c r="G26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E27" s="11">
         <v>3</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E28" s="11">
+        <v>4</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E29" s="11">
+        <v>5</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E22" s="11">
-        <v>1</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E23" s="11">
-        <v>2</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="E24" s="11">
-        <v>3</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="E25" s="11">
-        <v>4</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E26" s="11">
-        <v>5</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E29" s="11">
-        <v>1</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E30" s="11">
+        <v>6</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32" s="11">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E33" s="11">
         <v>2</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="E31" s="11">
+      <c r="F33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E34" s="11">
         <v>3</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="E32" s="11">
+      <c r="F34" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E35" s="11">
         <v>4</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E36" s="11">
+        <v>5</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G36" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E33" s="16">
-        <v>5</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="16"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" ht="180" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E36" s="11">
-        <v>2</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E37" s="11">
+        <v>6</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E40" s="11">
+        <v>1</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E41" s="11">
+        <v>2</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E42" s="11">
         <v>3</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="E38" s="11">
-        <v>4</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F41" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F42" s="11" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E43" s="11">
+        <v>4</v>
+      </c>
       <c r="F43" s="11" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="L43" s="4"/>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E44" s="11">
+        <v>5</v>
+      </c>
       <c r="F44" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>80</v>
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E45" s="11">
+        <v>6</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>81</v>
+        <v>71</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E46" s="11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="E47" s="11">
-        <v>2</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>85</v>
-      </c>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L47" s="4"/>
     </row>
     <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="L48" s="4"/>
     </row>
@@ -1788,529 +1878,505 @@
         <v>1</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E50" s="11">
         <v>2</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="11" t="s">
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E51" s="11">
+        <v>3</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E52" s="11">
+        <v>4</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E53" s="11">
+        <v>5</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E54" s="11">
+        <v>6</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="11" t="s">
+      <c r="D56" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="L51" s="4"/>
-    </row>
-    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E52" s="11">
+      <c r="F56" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E57" s="11">
         <v>1</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L52" s="4"/>
-    </row>
-    <row r="53" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="E53" s="11">
+      <c r="F57" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E58" s="11">
         <v>2</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L54" s="4"/>
-    </row>
-    <row r="55" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L55" s="4"/>
-    </row>
-    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E56" s="11">
-        <v>1</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L56" s="4"/>
-    </row>
-    <row r="57" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="E57" s="11">
-        <v>2</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L57" s="4"/>
-    </row>
-    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E58" s="11">
-        <v>3</v>
-      </c>
       <c r="F58" s="11" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="L58" s="4"/>
     </row>
     <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E59" s="11">
+        <v>3</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E60" s="11">
         <v>4</v>
       </c>
-      <c r="F59" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E60" s="11">
+      <c r="F60" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E61" s="11">
         <v>5</v>
       </c>
-      <c r="F60" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F61" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>99</v>
+    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E62" s="11">
+        <v>6</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="L62" s="4"/>
     </row>
     <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E63" s="11">
+        <v>7</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E66" s="11">
         <v>1</v>
       </c>
-      <c r="F63" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="E64" s="11">
+      <c r="F66" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E67" s="11">
         <v>2</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E65" s="11">
-        <v>3</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="L65" s="4"/>
-    </row>
-    <row r="66" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="E66" s="11">
-        <v>4</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="L66" s="4"/>
-    </row>
-    <row r="67" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E67" s="11">
-        <v>5</v>
-      </c>
       <c r="F67" s="11" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="L67" s="4"/>
     </row>
     <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E68" s="11">
+        <v>3</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="11">
+        <v>4</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="70" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E70" s="11">
+        <v>5</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E71" s="11">
         <v>6</v>
       </c>
-      <c r="F68" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L68" s="4"/>
-    </row>
-    <row r="69" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E70" s="11">
-        <v>1</v>
-      </c>
-      <c r="F70" s="11" t="s">
+      <c r="F71" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G71" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="L70" s="4"/>
-    </row>
-    <row r="71" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="E71" s="11">
-        <v>2</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="L71" s="4"/>
     </row>
     <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E72" s="11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="E73" s="11">
-        <v>4</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>96</v>
-      </c>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E74" s="11">
-        <v>5</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>105</v>
-      </c>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E75" s="11">
-        <v>6</v>
+    <row r="75" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E76" s="11">
+        <v>1</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>108</v>
+    <row r="77" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E77" s="11">
+        <v>2</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>81</v>
+        <v>54</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="L77" s="4"/>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E78" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E79" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L79" s="4"/>
+    </row>
+    <row r="80" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E80" s="11">
+        <v>5</v>
+      </c>
+      <c r="F80" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G79" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L79" s="4"/>
-    </row>
-    <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E80" s="11">
-        <v>3</v>
-      </c>
-      <c r="F80" s="11" t="s">
+      <c r="G80" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L80" s="4"/>
+    </row>
+    <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E81" s="11">
+        <v>6</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G81" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L80" s="4"/>
-    </row>
-    <row r="81" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="E81" s="11">
-        <v>4</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="L81" s="4"/>
     </row>
     <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E82" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E83" s="11">
-        <v>6</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>110</v>
-      </c>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J83" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L83" s="4"/>
+    </row>
+    <row r="84" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="L83" s="4"/>
-    </row>
-    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E84" s="11">
-        <v>7</v>
-      </c>
       <c r="F84" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E85" s="11">
+        <v>1</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>106</v>
+    <row r="86" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E86" s="11">
+        <v>2</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>81</v>
+        <v>54</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="L86" s="4"/>
     </row>
     <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E87" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E88" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E89" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E90" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E91" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E92" s="11">
-        <v>6</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>101</v>
-      </c>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L92" s="4"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="L94" s="4"/>
     </row>
@@ -2319,10 +2385,10 @@
         <v>1</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="L95" s="4"/>
     </row>
@@ -2331,10 +2397,10 @@
         <v>2</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="L96" s="4"/>
     </row>
@@ -2343,10 +2409,10 @@
         <v>3</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="L97" s="4"/>
     </row>
@@ -2355,10 +2421,10 @@
         <v>4</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="L98" s="4"/>
     </row>
@@ -2367,10 +2433,10 @@
         <v>5</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="L99" s="4"/>
     </row>
@@ -2379,10 +2445,10 @@
         <v>6</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L100" s="4"/>
     </row>
@@ -2391,217 +2457,226 @@
         <v>7</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E102" s="11">
+        <v>8</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B103" s="11" t="s">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L103" s="4"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L104" s="4"/>
+    </row>
+    <row r="105" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B105" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D103" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L103" s="4"/>
-    </row>
-    <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E104" s="11">
-        <v>1</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L104" s="4"/>
-    </row>
-    <row r="105" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="E105" s="11">
-        <v>2</v>
+      <c r="D105" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="L105" s="4"/>
     </row>
     <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E106" s="11">
+        <v>1</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L106" s="4"/>
+    </row>
+    <row r="107" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E107" s="11">
+        <v>2</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L107" s="4"/>
+    </row>
+    <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E108" s="11">
         <v>3</v>
       </c>
-      <c r="F106" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L106" s="4"/>
-    </row>
-    <row r="107" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="E107" s="11">
-        <v>4</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="L107" s="4"/>
-    </row>
-    <row r="108" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E108" s="11">
-        <v>5</v>
-      </c>
       <c r="F108" s="11" t="s">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L108" s="4"/>
     </row>
     <row r="109" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E109" s="11">
+        <v>4</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L109" s="4"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E110" s="11">
+        <v>5</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L110" s="4"/>
+    </row>
+    <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E111" s="11">
         <v>6</v>
       </c>
-      <c r="F109" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G109" s="11" t="s">
+      <c r="F111" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L111" s="4"/>
+    </row>
+    <row r="112" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D112" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="L109" s="4"/>
-    </row>
-    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E110" s="11">
+      <c r="F112" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L112" s="4"/>
+    </row>
+    <row r="113" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E113" s="11">
+        <v>1</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L113" s="4"/>
+    </row>
+    <row r="114" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E114" s="11">
+        <v>2</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L114" s="4"/>
+    </row>
+    <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E115" s="11">
+        <v>3</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L115" s="4"/>
+    </row>
+    <row r="116" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E116" s="11">
+        <v>4</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L116" s="4"/>
+    </row>
+    <row r="117" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E117" s="11">
+        <v>5</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G117" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L117" s="4"/>
+    </row>
+    <row r="118" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E118" s="11">
+        <v>6</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L118" s="4"/>
+    </row>
+    <row r="119" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="E119" s="11">
         <v>7</v>
       </c>
-      <c r="F110" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="L110" s="4"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L111" s="4"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L112" s="4"/>
-    </row>
-    <row r="113" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="F119" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G119" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L113" s="4"/>
-    </row>
-    <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E114" s="11">
-        <v>1</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L114" s="4"/>
-    </row>
-    <row r="115" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="E115" s="11">
-        <v>2</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L115" s="4"/>
-    </row>
-    <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E116" s="11">
-        <v>3</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L116" s="4"/>
-    </row>
-    <row r="117" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="E117" s="11">
-        <v>4</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="L117" s="4"/>
-    </row>
-    <row r="118" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="E118" s="11">
-        <v>5</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="L118" s="4"/>
-    </row>
-    <row r="119" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E119" s="11">
-        <v>6</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="L119" s="4"/>
     </row>
     <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E120" s="11">
-        <v>7</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>134</v>
+        <v>8</v>
+      </c>
+      <c r="F120" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G120" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="L120" s="4"/>
     </row>
@@ -2610,16 +2685,17 @@
     </row>
     <row r="122" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>30</v>
       </c>
+      <c r="C122"/>
       <c r="D122" s="11" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="L122" s="4"/>
     </row>
@@ -2628,10 +2704,10 @@
         <v>1</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="L123" s="4"/>
     </row>
@@ -2640,10 +2716,10 @@
         <v>2</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="G124" s="11" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="L124" s="4"/>
     </row>
@@ -2652,10 +2728,10 @@
         <v>3</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="L125" s="4"/>
     </row>
@@ -2664,10 +2740,10 @@
         <v>4</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="L126" s="4"/>
     </row>
@@ -2676,671 +2752,1358 @@
         <v>5</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>105</v>
+        <v>122</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E128" s="11">
         <v>6</v>
       </c>
-      <c r="F128" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>153</v>
+      <c r="F128" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G128" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="E129" s="11">
         <v>7</v>
       </c>
-      <c r="F129" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>123</v>
+      <c r="F129" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>127</v>
       </c>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E130" s="11">
+        <v>8</v>
+      </c>
+      <c r="F130" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="L130" s="4"/>
     </row>
     <row r="131" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B131" s="11" t="s">
+      <c r="E131" s="11">
+        <v>9</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L131" s="4"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L132" s="4"/>
+    </row>
+    <row r="133" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B133" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D131" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F131" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L131" s="4"/>
-    </row>
-    <row r="132" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E132" s="11">
+      <c r="C133">
         <v>1</v>
       </c>
-      <c r="F132" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G132" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L132" s="4"/>
-    </row>
-    <row r="133" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="E133" s="11">
-        <v>2</v>
+      <c r="D133" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="L133" s="4"/>
     </row>
     <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E134" s="11">
+        <v>1</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L134" s="4"/>
+    </row>
+    <row r="135" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="E135" s="11">
+        <v>2</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L135" s="4"/>
+    </row>
+    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E136" s="11">
         <v>3</v>
       </c>
-      <c r="F134" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G134" s="11" t="s">
+      <c r="F136" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L136" s="4"/>
+    </row>
+    <row r="137" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="E137" s="11">
+        <v>4</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G137" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L137" s="4"/>
+    </row>
+    <row r="138" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E138" s="11">
+        <v>5</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G138" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L138" s="4"/>
+    </row>
+    <row r="139" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="E139" s="11">
+        <v>6</v>
+      </c>
+      <c r="F139" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G139" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L139" s="4"/>
+    </row>
+    <row r="140" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="E140" s="11">
+        <v>7</v>
+      </c>
+      <c r="F140" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L140" s="4"/>
+    </row>
+    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="E141" s="11">
+        <v>5</v>
+      </c>
+      <c r="F141" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G141" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L141" s="4"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L142" s="4"/>
+    </row>
+    <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L143" s="4"/>
+    </row>
+    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F144" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L144" s="4"/>
+    </row>
+    <row r="145" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F145" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L145" s="4"/>
+    </row>
+    <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F146" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L146" s="4"/>
+    </row>
+    <row r="147" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="F147" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L147" s="4"/>
+    </row>
+    <row r="148" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F148" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G148" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L148" s="4"/>
+    </row>
+    <row r="149" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F149" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G149" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L149" s="4"/>
+    </row>
+    <row r="150" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="F150" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G150" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L150" s="4"/>
+    </row>
+    <row r="151" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F151" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G151" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L151" s="4"/>
+    </row>
+    <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C152" t="s">
+        <v>137</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L152" s="4"/>
+    </row>
+    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F153" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L153" s="4"/>
+    </row>
+    <row r="154" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F154" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L154" s="4"/>
+    </row>
+    <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F155" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L155" s="4"/>
+    </row>
+    <row r="156" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="F156" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L156" s="4"/>
+    </row>
+    <row r="157" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F157" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G157" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L157" s="4"/>
+    </row>
+    <row r="158" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F158" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G158" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L158" s="4"/>
+    </row>
+    <row r="159" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="F159" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G159" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L159" s="4"/>
+    </row>
+    <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F160" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G160" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L160" s="4"/>
+    </row>
+    <row r="161" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F161" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G161" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="L161" s="4"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L162" s="4"/>
+    </row>
+    <row r="163" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A163" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C163" t="s">
+        <v>137</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L163" s="4"/>
+    </row>
+    <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F164" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L164" s="4"/>
+    </row>
+    <row r="165" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F165" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G165" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L165" s="4"/>
+    </row>
+    <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F166" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L166" s="4"/>
+    </row>
+    <row r="167" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="F167" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G167" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L167" s="4"/>
+    </row>
+    <row r="168" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F168" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G168" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L168" s="4"/>
+    </row>
+    <row r="169" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F169" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G169" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L169" s="4"/>
+    </row>
+    <row r="170" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="F170" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G170" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L170" s="4"/>
+    </row>
+    <row r="171" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F171" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G171" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L171" s="4"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L172" s="4"/>
+    </row>
+    <row r="173" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A173" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C173" t="s">
+        <v>137</v>
+      </c>
+      <c r="D173" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="L134" s="4"/>
-    </row>
-    <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E135" s="11">
-        <v>4</v>
-      </c>
-      <c r="F135" s="11" t="s">
+      <c r="F173" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L173" s="4"/>
+    </row>
+    <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F174" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G174" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L174" s="4"/>
+    </row>
+    <row r="175" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F175" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L175" s="4"/>
+    </row>
+    <row r="176" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F176" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G176" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L176" s="4"/>
+    </row>
+    <row r="177" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="F177" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L177" s="4"/>
+    </row>
+    <row r="178" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F178" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G178" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L178" s="4"/>
+    </row>
+    <row r="179" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F179" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G179" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L179" s="4"/>
+    </row>
+    <row r="180" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="F180" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G180" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L180" s="4"/>
+    </row>
+    <row r="181" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F181" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G181" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L181" s="4"/>
+    </row>
+    <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F182" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G135" s="11" t="s">
+      <c r="G182" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="L135" s="4"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E136" s="11">
-        <v>5</v>
-      </c>
-      <c r="F136" s="11" t="s">
+      <c r="L182" s="4"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L183" s="4"/>
+    </row>
+    <row r="184" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A184" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C184" t="s">
+        <v>137</v>
+      </c>
+      <c r="D184" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="G136" s="11" t="s">
+      <c r="F184" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L184" s="4"/>
+    </row>
+    <row r="185" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F185" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G185" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L185" s="4"/>
+    </row>
+    <row r="186" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F186" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G186" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L186" s="4"/>
+    </row>
+    <row r="187" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F187" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L187" s="4"/>
+    </row>
+    <row r="188" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="F188" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G188" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L188" s="4"/>
+    </row>
+    <row r="189" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F189" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G189" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L189" s="4"/>
+    </row>
+    <row r="190" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F190" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G190" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L190" s="4"/>
+    </row>
+    <row r="191" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="F191" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G191" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L191" s="4"/>
+    </row>
+    <row r="192" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F192" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="L136" s="4"/>
-    </row>
-    <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E137" s="11">
-        <v>6</v>
-      </c>
-      <c r="F137" s="11" t="s">
+      <c r="G192" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="G137" s="11" t="s">
+      <c r="L192" s="4"/>
+    </row>
+    <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F193" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G193" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="L193" s="4"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L194" s="4"/>
+    </row>
+    <row r="195" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A195" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C195" t="s">
+        <v>137</v>
+      </c>
+      <c r="D195" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="L137" s="4"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L138" s="4"/>
-    </row>
-    <row r="139" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B139" s="11" t="s">
+      <c r="F195" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L195" s="4"/>
+    </row>
+    <row r="196" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F196" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G196" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L196" s="4"/>
+    </row>
+    <row r="197" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F197" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G197" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L197" s="4"/>
+    </row>
+    <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F198" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G198" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L198" s="4"/>
+    </row>
+    <row r="199" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="F199" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G199" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L199" s="4"/>
+    </row>
+    <row r="200" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F200" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G200" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L200" s="4"/>
+    </row>
+    <row r="201" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F201" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G201" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L201" s="4"/>
+    </row>
+    <row r="202" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="F202" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G202" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L202" s="4"/>
+    </row>
+    <row r="203" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F203" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G203" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L203" s="4"/>
+    </row>
+    <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F204" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G204" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="L204" s="4"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L205" s="4"/>
+    </row>
+    <row r="206" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A206" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B206" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D139" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F139" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L139" s="4"/>
-    </row>
-    <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E140" s="11">
-        <v>1</v>
-      </c>
-      <c r="F140" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G140" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L140" s="4"/>
-    </row>
-    <row r="141" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="E141" s="11">
-        <v>2</v>
-      </c>
-      <c r="F141" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G141" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L141" s="4"/>
-    </row>
-    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E142" s="11">
-        <v>3</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="L142" s="4"/>
-    </row>
-    <row r="143" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E143" s="11">
-        <v>4</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G143" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="L143" s="4"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E144" s="11">
-        <v>5</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="L144" s="4"/>
-    </row>
-    <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E145" s="11">
-        <v>6</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G145" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="L145" s="4"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L146" s="4"/>
-    </row>
-    <row r="147" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
+      <c r="C206" t="s">
+        <v>137</v>
+      </c>
+      <c r="D206" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F206" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L206" s="4"/>
+    </row>
+    <row r="207" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F207" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G207" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L207" s="4"/>
+    </row>
+    <row r="208" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F208" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G208" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L208" s="4"/>
+    </row>
+    <row r="209" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F209" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G209" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="L209" s="4"/>
+    </row>
+    <row r="210" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="F210" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G210" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L210" s="4"/>
+    </row>
+    <row r="211" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F211" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G211" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L211" s="4"/>
+    </row>
+    <row r="212" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F212" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G212" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L212" s="4"/>
+    </row>
+    <row r="213" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="F213" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G213" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L213" s="4"/>
+    </row>
+    <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F214" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="G214" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L214" s="4"/>
+    </row>
+    <row r="215" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="F215" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G215" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L215" s="4"/>
+    </row>
+    <row r="216" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F216" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G216" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L216" s="4"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L217" s="4"/>
+    </row>
+    <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B218" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D147" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F147" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L147" s="4"/>
-    </row>
-    <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E148" s="11">
-        <v>1</v>
-      </c>
-      <c r="F148" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L148" s="4"/>
-    </row>
-    <row r="149" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="E149" s="11">
-        <v>2</v>
-      </c>
-      <c r="F149" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L149" s="4"/>
-    </row>
-    <row r="150" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E150" s="11">
-        <v>3</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G150" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L150" s="4"/>
-    </row>
-    <row r="151" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="E151" s="11">
-        <v>4</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="L151" s="4"/>
-    </row>
-    <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="E152" s="11">
-        <v>5</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="L152" s="4"/>
-    </row>
-    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E153" s="11">
-        <v>6</v>
-      </c>
-      <c r="F153" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="L153" s="4"/>
-    </row>
-    <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="E154" s="11">
-        <v>7</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="L154" s="4"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L155" s="4"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L156" s="4"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L157" s="4"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L158" s="4"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L159" s="4"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L160" s="4"/>
-    </row>
-    <row r="161" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L161" s="4"/>
-    </row>
-    <row r="162" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L162" s="4"/>
-    </row>
-    <row r="163" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L163" s="4"/>
-    </row>
-    <row r="164" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L164" s="4"/>
-    </row>
-    <row r="165" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L165" s="4"/>
-    </row>
-    <row r="166" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L166" s="4"/>
-    </row>
-    <row r="167" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L167" s="4"/>
-    </row>
-    <row r="168" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L168" s="4"/>
-    </row>
-    <row r="169" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L169" s="4"/>
-    </row>
-    <row r="170" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L180" s="4"/>
-    </row>
-    <row r="181" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L181" s="4"/>
-    </row>
-    <row r="182" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L182" s="4"/>
-    </row>
-    <row r="183" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L183" s="4"/>
-    </row>
-    <row r="184" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L184" s="4"/>
-    </row>
-    <row r="185" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L185" s="4"/>
-    </row>
-    <row r="186" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L186" s="4"/>
-    </row>
-    <row r="187" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L187" s="4"/>
-    </row>
-    <row r="188" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L188" s="4"/>
-    </row>
-    <row r="189" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L189" s="4"/>
-    </row>
-    <row r="190" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L190" s="4"/>
-    </row>
-    <row r="191" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L191" s="4"/>
-    </row>
-    <row r="192" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L192" s="4"/>
-    </row>
-    <row r="193" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L193" s="4"/>
-    </row>
-    <row r="194" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L194" s="4"/>
-    </row>
-    <row r="195" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L195" s="4"/>
-    </row>
-    <row r="196" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L196" s="4"/>
-    </row>
-    <row r="197" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L197" s="4"/>
-    </row>
-    <row r="198" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L198" s="4"/>
-    </row>
-    <row r="199" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L199" s="4"/>
-    </row>
-    <row r="200" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L200" s="4"/>
-    </row>
-    <row r="201" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L201" s="4"/>
-    </row>
-    <row r="202" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L202" s="4"/>
-    </row>
-    <row r="203" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L203" s="4"/>
-    </row>
-    <row r="204" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L204" s="4"/>
-    </row>
-    <row r="205" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L205" s="4"/>
-    </row>
-    <row r="206" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L206" s="4"/>
-    </row>
-    <row r="207" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L207" s="4"/>
-    </row>
-    <row r="208" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L208" s="4"/>
-    </row>
-    <row r="209" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L209" s="4"/>
-    </row>
-    <row r="210" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L210" s="4"/>
-    </row>
-    <row r="211" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L211" s="4"/>
-    </row>
-    <row r="212" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L212" s="4"/>
-    </row>
-    <row r="213" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L213" s="4"/>
-    </row>
-    <row r="214" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L214" s="4"/>
-    </row>
-    <row r="215" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L215" s="4"/>
-    </row>
-    <row r="216" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L216" s="4"/>
-    </row>
-    <row r="217" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L217" s="4"/>
-    </row>
-    <row r="218" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>137</v>
+      </c>
+      <c r="D218" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F218" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L218" s="4"/>
     </row>
-    <row r="219" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F219" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G219" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L219" s="4"/>
     </row>
-    <row r="220" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F220" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G220" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L220" s="4"/>
     </row>
-    <row r="221" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F221" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G221" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="L221" s="4"/>
     </row>
-    <row r="222" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="F222" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G222" s="11" t="s">
+        <v>161</v>
+      </c>
       <c r="L222" s="4"/>
     </row>
-    <row r="223" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F223" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G223" s="11" t="s">
+        <v>165</v>
+      </c>
       <c r="L223" s="4"/>
     </row>
-    <row r="224" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L224" s="4"/>
     </row>
-    <row r="225" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C225" t="s">
+        <v>137</v>
+      </c>
+      <c r="D225" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F225" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L225" s="4"/>
     </row>
-    <row r="226" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F226" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G226" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L226" s="4"/>
     </row>
-    <row r="227" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F227" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G227" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L227" s="4"/>
     </row>
-    <row r="228" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F228" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G228" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="L228" s="4"/>
     </row>
-    <row r="229" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F229" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G229" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="L229" s="4"/>
     </row>
-    <row r="230" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F230" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G230" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="L230" s="4"/>
     </row>
-    <row r="231" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="F231" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G231" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="L231" s="4"/>
     </row>
-    <row r="232" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L232" s="4"/>
     </row>
-    <row r="233" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A233" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C233" t="s">
+        <v>137</v>
+      </c>
+      <c r="D233" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F233" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L233" s="4"/>
     </row>
-    <row r="234" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F234" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G234" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L234" s="4"/>
     </row>
-    <row r="235" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F235" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G235" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L235" s="4"/>
     </row>
-    <row r="236" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F236" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G236" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="L236" s="4"/>
     </row>
-    <row r="237" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F237" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G237" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="L237" s="4"/>
     </row>
-    <row r="238" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F238" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G238" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="L238" s="4"/>
     </row>
-    <row r="239" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="F239" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G239" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="L239" s="4"/>
     </row>
-    <row r="240" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L240" s="4"/>
     </row>
-    <row r="241" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A241" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C241" t="s">
+        <v>137</v>
+      </c>
+      <c r="D241" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F241" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L241" s="4"/>
     </row>
-    <row r="242" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F242" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G242" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L242" s="4"/>
     </row>
-    <row r="243" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F243" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G243" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L243" s="4"/>
     </row>
-    <row r="244" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F244" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G244" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="L244" s="4"/>
     </row>
-    <row r="245" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F245" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G245" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="L245" s="4"/>
     </row>
-    <row r="246" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F246" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G246" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="L246" s="4"/>
     </row>
-    <row r="247" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="F247" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G247" s="11" t="s">
+        <v>178</v>
+      </c>
       <c r="L247" s="4"/>
     </row>
-    <row r="248" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L248" s="4"/>
     </row>
-    <row r="249" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A249" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C249" t="s">
+        <v>137</v>
+      </c>
+      <c r="D249" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F249" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L249" s="4"/>
     </row>
-    <row r="250" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F250" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G250" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L250" s="4"/>
     </row>
-    <row r="251" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F251" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G251" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L251" s="4"/>
     </row>
-    <row r="252" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F252" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G252" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="L252" s="4"/>
     </row>
-    <row r="253" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F253" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G253" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="L253" s="4"/>
     </row>
-    <row r="254" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F254" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G254" s="11" t="s">
+        <v>171</v>
+      </c>
       <c r="L254" s="4"/>
     </row>
-    <row r="255" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="F255" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G255" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L255" s="4"/>
     </row>
-    <row r="256" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A256" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B256" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C256" t="s">
+        <v>137</v>
+      </c>
+      <c r="D256" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F256" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L256" s="4"/>
     </row>
-    <row r="257" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="6:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F257" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G257" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L257" s="4"/>
     </row>
-    <row r="258" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="6:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F258" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G258" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L258" s="4"/>
     </row>
-    <row r="259" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="6:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F259" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G259" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="L259" s="4"/>
     </row>
-    <row r="260" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="6:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F260" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G260" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="L260" s="4"/>
     </row>
-    <row r="261" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="6:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F261" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G261" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="L261" s="4"/>
     </row>
-    <row r="262" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="6:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="F262" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G262" s="11" t="s">
+        <v>182</v>
+      </c>
       <c r="L262" s="4"/>
     </row>
-    <row r="263" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="6:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F263" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G263" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="L263" s="4"/>
     </row>
-    <row r="264" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="6:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F264" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G264" s="11" t="s">
+        <v>188</v>
+      </c>
       <c r="L264" s="4"/>
     </row>
-    <row r="265" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L265" s="4"/>
     </row>
-    <row r="266" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L266" s="4"/>
     </row>
-    <row r="267" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L267" s="4"/>
     </row>
-    <row r="268" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L268" s="4"/>
     </row>
-    <row r="269" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L269" s="4"/>
     </row>
-    <row r="270" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L270" s="4"/>
     </row>
-    <row r="271" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L271" s="4"/>
     </row>
-    <row r="272" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L272" s="4"/>
     </row>
     <row r="273" spans="12:12" x14ac:dyDescent="0.25">
@@ -4901,28 +5664,25 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:S1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C649:C718" xr:uid="{BB1FB602-1765-4F63-8427-732A8BF96F64}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B7 B14 B21 B28 B35 B40 B45 B48 B51 B55 B58 B62 B65 B69 B72 B77 B80 B86 B89 B94 B97 B103 B106 B113 B116 B122 B125 B131 B134 B139 B142 B147 B150" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84 B87 B108 B97 B104:B105 B94 B2 B7 B10 B13 B17 B20 B24 B27 B31 B34 B39 B42 B48 B51 B56 B59 B65 B68 B75 B78 B112 B115 B125 B122 B133 B143 B152 B163 B173 B184 B195 B206 B218 B225 B233 B241 B249 B256" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K475:K677" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K474 C2:C648" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K474 C2:C92 C94:C648" xr:uid="{9ABCAB91-EA72-4653-9CA8-9A382BDAE099}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L722" xr:uid="{448852A5-7DBD-44F3-839F-CC0FA067F14F}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{8C39ADC7-3718-4290-ACFA-30654A036A33}"/>
-    <hyperlink ref="I8" r:id="rId2" xr:uid="{244DEB12-D62B-4F64-A7FC-FCE90214F663}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Case/Sangeetha/Testcase- OutPatient last.xlsx
+++ b/Test Case/Sangeetha/Testcase- OutPatient last.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sangeetha\Mediware\07-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sangeetha\Mediware\10-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70458609-1D90-4830-A882-F2F5FE3D9382}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67B618A0-C688-4691-B6D5-6E161F5C247E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B0F86180-7D4B-4DF7-AD62-71380A8C5CDD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="260">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>User should be able to add procedure details</t>
-  </si>
-  <si>
-    <t>Verify that the user is able to add op bill from the out patient search list</t>
   </si>
   <si>
     <t>Click on Save button or( ALT+S)</t>
@@ -687,6 +684,238 @@
   </si>
   <si>
     <t>User should be able to deselect added insurance.</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to edit added bills </t>
+  </si>
+  <si>
+    <t>Add OP Bill</t>
+  </si>
+  <si>
+    <t>User should be able to add OP bill</t>
+  </si>
+  <si>
+    <t>Try to  delete added OP bill on clicking Delete option</t>
+  </si>
+  <si>
+    <t>User should be able to delete OP bill</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_029</t>
+  </si>
+  <si>
+    <t>Try to  edit  added OP bill on clicking edit option option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to edit added OP bills </t>
+  </si>
+  <si>
+    <t>User should be able to edit OP bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to delete  added OP bills </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to  delete  added OP bill on clicking delete option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to edit added LRO bills </t>
+  </si>
+  <si>
+    <t>User should be able to add LRO bill</t>
+  </si>
+  <si>
+    <t>Try to  edit  added LRO bill on clicking edit option option</t>
+  </si>
+  <si>
+    <t>User should be able to edit LRO  bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to delete  added LRO bills </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select and try to add LRO Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to  delete  added LRO bill on clicking delete option </t>
+  </si>
+  <si>
+    <t>User should be able to delete LRO bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to edit added Pharmacy bills </t>
+  </si>
+  <si>
+    <t>Select and try to Add LRO Bill at the bottm</t>
+  </si>
+  <si>
+    <t>Select and try  to Add Pharmacy Bill at the bottm</t>
+  </si>
+  <si>
+    <t>User should be able to add Pharmacy bill</t>
+  </si>
+  <si>
+    <t>Try to  edit  added Pharmacy bill on clicking edit option option</t>
+  </si>
+  <si>
+    <t>User should be able to edit Pharmacy  bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to delete  added pharmacy bills </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select and try to add Pharmacy Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to  delete  added Pharmacy bill on clicking delete option </t>
+  </si>
+  <si>
+    <t>User should be able to delete Pharmacy bill</t>
+  </si>
+  <si>
+    <t>Select and try  to Add Surgery bills at the bottm</t>
+  </si>
+  <si>
+    <t>Try to  edit  added Surgery bill on clicking edit option option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to edit added Surgery bills </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to delete added Surgery bills </t>
+  </si>
+  <si>
+    <t>Try to  delete added Surgery bill on clicking delete option option</t>
+  </si>
+  <si>
+    <t>User should be able to add Surgery bill</t>
+  </si>
+  <si>
+    <t>User should be able to delete Surgery  bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the user is able to add  OP bills </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user is able to Clear selected bills </t>
+  </si>
+  <si>
+    <t>Selected procedure and all details should be cleared.</t>
+  </si>
+  <si>
+    <t>Go to Add Bills at the botton and select Procedure and remaining details and click on Clear option</t>
+  </si>
+  <si>
+    <t>Verify the clear option for 
+OP Bills
+LRO Bills
+Pharmcay Bills 
+Surgery Bills</t>
+  </si>
+  <si>
+    <t>User should be able to clear  added procedures for follwing Bills
+OP Bills
+LRO Bills
+Pharmcay Bills 
+Surgery Bills</t>
+  </si>
+  <si>
+    <t>Go to Add Bills at the botton Select OP Bills and Add procedure details</t>
+  </si>
+  <si>
+    <t>User should be able to apply remarks for OP bills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can apply remarks for Pharmacy   bills </t>
+  </si>
+  <si>
+    <t>Go to Add Bills at the botton Select Pharmacy Bills and Add procedure details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to apply remarks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can apply remarks for OP  bills </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can apply remarks for Surgery Entry bills </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to apply surgery remarks </t>
+  </si>
+  <si>
+    <t>Try to apply remarks for Surgery bills on clicking Remarks options</t>
+  </si>
+  <si>
+    <t>Try to apply remarks for Pharmacy bills on clicking Remarks option</t>
+  </si>
+  <si>
+    <t>Try to apply remarks for OP bills on clicking  Remarks option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can apply remarks for LRO bills </t>
+  </si>
+  <si>
+    <t>Go to Add Bills at the botton Select Surgery Bills and Add procedure details</t>
+  </si>
+  <si>
+    <t>Go to Add Bills at the botton Select LRO Bills and Add procedure details</t>
+  </si>
+  <si>
+    <t>Try to apply remarks for LRO bills on clicking Remarks options</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_030</t>
+  </si>
+  <si>
+    <t>Verify that Summary Print is generated on clicking Generate Bill</t>
+  </si>
+  <si>
+    <t>Add OP ,Pharmacy,Surgery,LRO bills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to add following bills
+OP 
+Pharmacy
+Surgery
+LRO bills
+</t>
+  </si>
+  <si>
+    <t>Click on Generate Bill</t>
+  </si>
+  <si>
+    <t>A pop up should be displayed for 
+Summary Print
+Detailed Print
+Receipt Print</t>
+  </si>
+  <si>
+    <t>Select Summary print and verify the details</t>
+  </si>
+  <si>
+    <t>System should display display</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_031</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_032</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_033</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_034</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_035</t>
+  </si>
+  <si>
+    <t>MED_Out Patient_TC_036</t>
   </si>
 </sst>
 </file>
@@ -794,7 +1023,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -843,6 +1072,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1168,8 +1400,8 @@
   <dimension ref="A1:S722"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D256" sqref="D256"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B373" sqref="B373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,14 +1462,14 @@
       <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="R1" s="18" t="s">
+      <c r="P1" s="18"/>
+      <c r="R1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="18"/>
+      <c r="S1" s="19"/>
     </row>
     <row r="2" spans="1:19" s="13" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1268,7 +1500,7 @@
       </c>
       <c r="P2" s="4">
         <f>COUNTA(A:A)-1</f>
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>12</v>
@@ -1507,7 +1739,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>44</v>
@@ -1546,7 +1778,7 @@
         <v>56</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L20" s="4"/>
     </row>
@@ -1555,10 +1787,10 @@
         <v>4</v>
       </c>
       <c r="F21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="L21" s="4"/>
     </row>
@@ -1567,17 +1799,17 @@
         <v>5</v>
       </c>
       <c r="F22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>103</v>
       </c>
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>23</v>
       </c>
@@ -1585,13 +1817,13 @@
         <v>30</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>44</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L24" s="4"/>
     </row>
@@ -1657,10 +1889,10 @@
         <v>6</v>
       </c>
       <c r="F30" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="L30" s="4"/>
     </row>
@@ -1672,7 +1904,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>44</v>
@@ -1711,7 +1943,7 @@
         <v>56</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L34" s="4"/>
     </row>
@@ -1732,10 +1964,10 @@
         <v>5</v>
       </c>
       <c r="F36" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="L36" s="4"/>
     </row>
@@ -1744,10 +1976,10 @@
         <v>6</v>
       </c>
       <c r="F37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="L37" s="4"/>
     </row>
@@ -1762,7 +1994,7 @@
         <v>30</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>44</v>
@@ -1801,7 +2033,7 @@
         <v>56</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>14</v>
@@ -1824,10 +2056,10 @@
         <v>5</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L44" s="4"/>
     </row>
@@ -1836,10 +2068,10 @@
         <v>6</v>
       </c>
       <c r="F45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="L45" s="4"/>
     </row>
@@ -1848,10 +2080,10 @@
         <v>7</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L46" s="4"/>
     </row>
@@ -1866,7 +2098,7 @@
         <v>30</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>44</v>
@@ -1905,7 +2137,7 @@
         <v>56</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L51" s="4"/>
     </row>
@@ -1926,10 +2158,10 @@
         <v>5</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L53" s="4"/>
     </row>
@@ -1938,10 +2170,10 @@
         <v>6</v>
       </c>
       <c r="F54" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="L54" s="4"/>
     </row>
@@ -1956,7 +2188,7 @@
         <v>30</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>44</v>
@@ -1995,7 +2227,7 @@
         <v>56</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L59" s="4"/>
     </row>
@@ -2007,7 +2239,7 @@
         <v>57</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L60" s="4"/>
     </row>
@@ -2016,10 +2248,10 @@
         <v>5</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L61" s="4"/>
     </row>
@@ -2028,10 +2260,10 @@
         <v>6</v>
       </c>
       <c r="F62" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="L62" s="4"/>
     </row>
@@ -2040,10 +2272,10 @@
         <v>7</v>
       </c>
       <c r="F63" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G63" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="L63" s="4"/>
     </row>
@@ -2058,7 +2290,7 @@
         <v>30</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>44</v>
@@ -2097,7 +2329,7 @@
         <v>56</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L68" s="4"/>
     </row>
@@ -2109,7 +2341,7 @@
         <v>57</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L69" s="4"/>
     </row>
@@ -2118,10 +2350,10 @@
         <v>5</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L70" s="4"/>
     </row>
@@ -2130,10 +2362,10 @@
         <v>6</v>
       </c>
       <c r="F71" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="L71" s="4"/>
     </row>
@@ -2142,10 +2374,10 @@
         <v>7</v>
       </c>
       <c r="F72" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G72" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="L72" s="4"/>
     </row>
@@ -2163,7 +2395,7 @@
         <v>30</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F75" s="11" t="s">
         <v>44</v>
@@ -2202,7 +2434,7 @@
         <v>56</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L78" s="4"/>
     </row>
@@ -2214,7 +2446,7 @@
         <v>57</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L79" s="4"/>
     </row>
@@ -2223,10 +2455,10 @@
         <v>5</v>
       </c>
       <c r="F80" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="L80" s="4"/>
     </row>
@@ -2235,10 +2467,10 @@
         <v>6</v>
       </c>
       <c r="F81" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G81" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="L81" s="4"/>
     </row>
@@ -2247,28 +2479,28 @@
         <v>7</v>
       </c>
       <c r="F82" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G82" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="L82" s="4"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J83" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L83" s="4"/>
     </row>
     <row r="84" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F84" s="11" t="s">
         <v>44</v>
@@ -2307,7 +2539,7 @@
         <v>56</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L87" s="4"/>
     </row>
@@ -2319,7 +2551,7 @@
         <v>57</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L88" s="4"/>
     </row>
@@ -2328,10 +2560,10 @@
         <v>5</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L89" s="4"/>
     </row>
@@ -2340,10 +2572,10 @@
         <v>6</v>
       </c>
       <c r="F90" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G90" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="L90" s="4"/>
     </row>
@@ -2352,10 +2584,10 @@
         <v>7</v>
       </c>
       <c r="F91" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G91" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="L91" s="4"/>
     </row>
@@ -2367,13 +2599,13 @@
     </row>
     <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F94" s="11" t="s">
         <v>44</v>
@@ -2412,7 +2644,7 @@
         <v>56</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L97" s="4"/>
     </row>
@@ -2424,7 +2656,7 @@
         <v>57</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L98" s="4"/>
     </row>
@@ -2433,10 +2665,10 @@
         <v>5</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L99" s="4"/>
     </row>
@@ -2445,10 +2677,10 @@
         <v>6</v>
       </c>
       <c r="F100" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G100" s="11" t="s">
         <v>112</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>113</v>
       </c>
       <c r="L100" s="4"/>
     </row>
@@ -2457,10 +2689,10 @@
         <v>7</v>
       </c>
       <c r="F101" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G101" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="L101" s="4"/>
     </row>
@@ -2469,10 +2701,10 @@
         <v>8</v>
       </c>
       <c r="F102" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G102" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="L102" s="4"/>
     </row>
@@ -2484,13 +2716,13 @@
     </row>
     <row r="105" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F105" s="11" t="s">
         <v>44</v>
@@ -2529,7 +2761,7 @@
         <v>56</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L108" s="4"/>
     </row>
@@ -2538,10 +2770,10 @@
         <v>4</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L109" s="4"/>
     </row>
@@ -2550,10 +2782,10 @@
         <v>5</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L110" s="4"/>
     </row>
@@ -2562,22 +2794,22 @@
         <v>6</v>
       </c>
       <c r="F111" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G111" s="11" t="s">
         <v>109</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>110</v>
       </c>
       <c r="L111" s="4"/>
     </row>
     <row r="112" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B112" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F112" s="11" t="s">
         <v>44</v>
@@ -2616,7 +2848,7 @@
         <v>56</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L115" s="4"/>
     </row>
@@ -2628,7 +2860,7 @@
         <v>57</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L116" s="4"/>
     </row>
@@ -2637,10 +2869,10 @@
         <v>5</v>
       </c>
       <c r="F117" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G117" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="G117" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="L117" s="4"/>
     </row>
@@ -2649,10 +2881,10 @@
         <v>6</v>
       </c>
       <c r="F118" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G118" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="G118" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="L118" s="4"/>
     </row>
@@ -2661,10 +2893,10 @@
         <v>7</v>
       </c>
       <c r="F119" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G119" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="G119" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="L119" s="4"/>
     </row>
@@ -2673,10 +2905,10 @@
         <v>8</v>
       </c>
       <c r="F120" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G120" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="G120" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="L120" s="4"/>
     </row>
@@ -2685,14 +2917,14 @@
     </row>
     <row r="122" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C122"/>
       <c r="D122" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F122" s="11" t="s">
         <v>44</v>
@@ -2731,7 +2963,7 @@
         <v>56</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L125" s="4"/>
     </row>
@@ -2743,7 +2975,7 @@
         <v>57</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L126" s="4"/>
     </row>
@@ -2752,10 +2984,10 @@
         <v>5</v>
       </c>
       <c r="F127" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G127" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="G127" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="L127" s="4"/>
     </row>
@@ -2764,10 +2996,10 @@
         <v>6</v>
       </c>
       <c r="F128" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G128" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="G128" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="L128" s="4"/>
     </row>
@@ -2776,10 +3008,10 @@
         <v>7</v>
       </c>
       <c r="F129" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G129" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="G129" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="L129" s="4"/>
     </row>
@@ -2788,10 +3020,10 @@
         <v>8</v>
       </c>
       <c r="F130" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G130" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="G130" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="L130" s="4"/>
     </row>
@@ -2800,10 +3032,10 @@
         <v>9</v>
       </c>
       <c r="F131" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G131" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="L131" s="4"/>
     </row>
@@ -2812,7 +3044,7 @@
     </row>
     <row r="133" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B133" s="11" t="s">
         <v>30</v>
@@ -2821,7 +3053,7 @@
         <v>1</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>44</v>
@@ -2860,7 +3092,7 @@
         <v>56</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L136" s="4"/>
     </row>
@@ -2872,7 +3104,7 @@
         <v>57</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L137" s="4"/>
     </row>
@@ -2881,10 +3113,10 @@
         <v>5</v>
       </c>
       <c r="F138" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G138" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="G138" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="L138" s="4"/>
     </row>
@@ -2893,10 +3125,10 @@
         <v>6</v>
       </c>
       <c r="F139" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G139" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="G139" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="L139" s="4"/>
     </row>
@@ -2905,10 +3137,10 @@
         <v>7</v>
       </c>
       <c r="F140" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G140" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="G140" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="L140" s="4"/>
     </row>
@@ -2917,10 +3149,10 @@
         <v>5</v>
       </c>
       <c r="F141" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G141" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="G141" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="L141" s="4"/>
     </row>
@@ -2929,7 +3161,7 @@
     </row>
     <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>30</v>
@@ -2938,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F143" s="11" t="s">
         <v>44</v>
@@ -2968,7 +3200,7 @@
         <v>56</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L146" s="4"/>
     </row>
@@ -2977,58 +3209,58 @@
         <v>57</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L147" s="4"/>
     </row>
     <row r="148" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F148" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G148" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="G148" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="L148" s="4"/>
     </row>
     <row r="149" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F149" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G149" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="G149" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="L149" s="4"/>
     </row>
     <row r="150" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="F150" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G150" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="G150" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="L150" s="4"/>
     </row>
     <row r="151" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F151" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G151" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="G151" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="L151" s="4"/>
     </row>
     <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B152" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C152" t="s">
+        <v>136</v>
+      </c>
+      <c r="D152" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="F152" s="11" t="s">
         <v>44</v>
@@ -3058,7 +3290,7 @@
         <v>56</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L155" s="4"/>
     </row>
@@ -3067,52 +3299,52 @@
         <v>57</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L156" s="4"/>
     </row>
     <row r="157" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F157" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G157" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="G157" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="L157" s="4"/>
     </row>
     <row r="158" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F158" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G158" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="G158" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="L158" s="4"/>
     </row>
     <row r="159" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="F159" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G159" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="G159" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="L159" s="4"/>
     </row>
     <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F160" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G160" s="16" t="s">
         <v>134</v>
-      </c>
-      <c r="G160" s="16" t="s">
-        <v>135</v>
       </c>
       <c r="L160" s="4"/>
     </row>
     <row r="161" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F161" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G161" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="G161" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="L161" s="4"/>
     </row>
@@ -3121,16 +3353,16 @@
     </row>
     <row r="163" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C163" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F163" s="11" t="s">
         <v>44</v>
@@ -3160,7 +3392,7 @@
         <v>56</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L166" s="4"/>
     </row>
@@ -3169,43 +3401,43 @@
         <v>57</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L167" s="4"/>
     </row>
     <row r="168" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F168" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G168" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="G168" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="L168" s="4"/>
     </row>
     <row r="169" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F169" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G169" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="G169" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="L169" s="4"/>
     </row>
     <row r="170" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="F170" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G170" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="G170" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="L170" s="4"/>
     </row>
     <row r="171" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F171" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G171" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="G171" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="L171" s="4"/>
     </row>
@@ -3214,16 +3446,16 @@
     </row>
     <row r="173" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B173" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C173" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D173" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F173" s="11" t="s">
         <v>44</v>
@@ -3253,7 +3485,7 @@
         <v>56</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L176" s="4"/>
     </row>
@@ -3262,52 +3494,52 @@
         <v>57</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L177" s="4"/>
     </row>
     <row r="178" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F178" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G178" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="G178" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="L178" s="4"/>
     </row>
     <row r="179" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F179" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G179" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="G179" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="L179" s="4"/>
     </row>
     <row r="180" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="F180" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G180" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="G180" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="L180" s="4"/>
     </row>
     <row r="181" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F181" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G181" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="G181" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="L181" s="4"/>
     </row>
     <row r="182" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F182" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G182" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="G182" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="L182" s="4"/>
     </row>
@@ -3316,16 +3548,16 @@
     </row>
     <row r="184" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B184" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C184" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D184" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F184" s="11" t="s">
         <v>44</v>
@@ -3355,7 +3587,7 @@
         <v>56</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L187" s="4"/>
     </row>
@@ -3364,52 +3596,52 @@
         <v>57</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L188" s="4"/>
     </row>
     <row r="189" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F189" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G189" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="G189" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="L189" s="4"/>
     </row>
     <row r="190" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F190" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G190" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="G190" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="L190" s="4"/>
     </row>
     <row r="191" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="F191" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G191" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="G191" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="L191" s="4"/>
     </row>
     <row r="192" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F192" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G192" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="G192" s="16" t="s">
-        <v>149</v>
       </c>
       <c r="L192" s="4"/>
     </row>
     <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F193" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G193" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="G193" s="11" t="s">
-        <v>146</v>
       </c>
       <c r="L193" s="4"/>
     </row>
@@ -3418,16 +3650,16 @@
     </row>
     <row r="195" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B195" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C195" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D195" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F195" s="11" t="s">
         <v>44</v>
@@ -3457,7 +3689,7 @@
         <v>56</v>
       </c>
       <c r="G198" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L198" s="4"/>
     </row>
@@ -3466,52 +3698,52 @@
         <v>57</v>
       </c>
       <c r="G199" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L199" s="4"/>
     </row>
     <row r="200" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F200" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G200" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="G200" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="L200" s="4"/>
     </row>
     <row r="201" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F201" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G201" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="G201" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="L201" s="4"/>
     </row>
     <row r="202" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="F202" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G202" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="G202" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="L202" s="4"/>
     </row>
     <row r="203" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F203" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G203" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="G203" s="16" t="s">
-        <v>149</v>
       </c>
       <c r="L203" s="4"/>
     </row>
     <row r="204" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F204" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G204" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="G204" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="L204" s="4"/>
     </row>
@@ -3520,16 +3752,16 @@
     </row>
     <row r="206" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B206" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C206" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D206" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F206" s="11" t="s">
         <v>44</v>
@@ -3559,7 +3791,7 @@
         <v>56</v>
       </c>
       <c r="G209" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L209" s="4"/>
     </row>
@@ -3568,61 +3800,61 @@
         <v>57</v>
       </c>
       <c r="G210" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L210" s="4"/>
     </row>
     <row r="211" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F211" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G211" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="G211" s="16" t="s">
-        <v>123</v>
       </c>
       <c r="L211" s="4"/>
     </row>
     <row r="212" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F212" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G212" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="G212" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="L212" s="4"/>
     </row>
     <row r="213" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="F213" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G213" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="G213" s="16" t="s">
-        <v>127</v>
       </c>
       <c r="L213" s="4"/>
     </row>
     <row r="214" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F214" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G214" s="16" t="s">
         <v>154</v>
-      </c>
-      <c r="G214" s="16" t="s">
-        <v>155</v>
       </c>
       <c r="L214" s="4"/>
     </row>
     <row r="215" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="F215" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G215" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="G215" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="L215" s="4"/>
     </row>
     <row r="216" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F216" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G216" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="G216" s="11" t="s">
-        <v>159</v>
       </c>
       <c r="L216" s="4"/>
     </row>
@@ -3631,16 +3863,16 @@
     </row>
     <row r="218" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B218" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C218" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F218" s="11" t="s">
         <v>44</v>
@@ -3670,25 +3902,25 @@
         <v>56</v>
       </c>
       <c r="G221" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L221" s="4"/>
     </row>
     <row r="222" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="F222" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G222" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L222" s="4"/>
     </row>
     <row r="223" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F223" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G223" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="G223" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="L223" s="4"/>
     </row>
@@ -3697,16 +3929,16 @@
     </row>
     <row r="225" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B225" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C225" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D225" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F225" s="11" t="s">
         <v>44</v>
@@ -3736,34 +3968,34 @@
         <v>56</v>
       </c>
       <c r="G228" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L228" s="4"/>
     </row>
     <row r="229" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F229" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G229" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="G229" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="L229" s="4"/>
     </row>
     <row r="230" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F230" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G230" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="G230" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="L230" s="4"/>
     </row>
     <row r="231" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F231" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G231" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="G231" s="11" t="s">
-        <v>173</v>
       </c>
       <c r="L231" s="4"/>
     </row>
@@ -3772,16 +4004,16 @@
     </row>
     <row r="233" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A233" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B233" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C233" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D233" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F233" s="11" t="s">
         <v>44</v>
@@ -3811,34 +4043,34 @@
         <v>56</v>
       </c>
       <c r="G236" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L236" s="4"/>
     </row>
     <row r="237" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F237" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G237" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L237" s="4"/>
     </row>
     <row r="238" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F238" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G238" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="G238" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="L238" s="4"/>
     </row>
     <row r="239" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F239" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G239" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="G239" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="L239" s="4"/>
     </row>
@@ -3847,16 +4079,16 @@
     </row>
     <row r="241" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B241" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C241" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D241" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F241" s="11" t="s">
         <v>44</v>
@@ -3886,34 +4118,34 @@
         <v>56</v>
       </c>
       <c r="G244" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L244" s="4"/>
     </row>
     <row r="245" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F245" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G245" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L245" s="4"/>
     </row>
     <row r="246" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F246" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G246" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="G246" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="L246" s="4"/>
     </row>
     <row r="247" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F247" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G247" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="G247" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="L247" s="4"/>
     </row>
@@ -3922,16 +4154,16 @@
     </row>
     <row r="249" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B249" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C249" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D249" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F249" s="11" t="s">
         <v>44</v>
@@ -3961,56 +4193,56 @@
         <v>56</v>
       </c>
       <c r="G252" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L252" s="4"/>
     </row>
     <row r="253" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F253" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G253" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L253" s="4"/>
     </row>
     <row r="254" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F254" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G254" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="G254" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="L254" s="4"/>
     </row>
     <row r="255" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F255" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G255" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="G255" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="L255" s="4"/>
     </row>
     <row r="256" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B256" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C256" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D256" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F256" s="11" t="s">
         <v>44</v>
       </c>
       <c r="L256" s="4"/>
     </row>
-    <row r="257" spans="6:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F257" s="11" t="s">
         <v>45</v>
       </c>
@@ -4019,7 +4251,7 @@
       </c>
       <c r="L257" s="4"/>
     </row>
-    <row r="258" spans="6:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F258" s="11" t="s">
         <v>54</v>
       </c>
@@ -4028,418 +4260,1149 @@
       </c>
       <c r="L258" s="4"/>
     </row>
-    <row r="259" spans="6:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F259" s="11" t="s">
         <v>56</v>
       </c>
       <c r="G259" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L259" s="4"/>
     </row>
-    <row r="260" spans="6:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F260" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G260" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L260" s="4"/>
+    </row>
+    <row r="261" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F261" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="L260" s="4"/>
-    </row>
-    <row r="261" spans="6:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F261" s="11" t="s">
-        <v>170</v>
-      </c>
       <c r="G261" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="L261" s="4"/>
+    </row>
+    <row r="262" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="F262" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G262" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L262" s="4"/>
+    </row>
+    <row r="263" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F263" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="L261" s="4"/>
-    </row>
-    <row r="262" spans="6:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="F262" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="G262" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="L262" s="4"/>
-    </row>
-    <row r="263" spans="6:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F263" s="11" t="s">
+      <c r="G263" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="G263" s="11" t="s">
+      <c r="L263" s="4"/>
+    </row>
+    <row r="264" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F264" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="L263" s="4"/>
-    </row>
-    <row r="264" spans="6:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F264" s="11" t="s">
+      <c r="G264" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="G264" s="11" t="s">
+      <c r="L264" s="4"/>
+    </row>
+    <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A265" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="L264" s="4"/>
-    </row>
-    <row r="265" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="B265" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C265" t="s">
+        <v>136</v>
+      </c>
+      <c r="D265" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F265" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L265" s="4"/>
     </row>
-    <row r="266" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F266" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G266" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L266" s="4"/>
     </row>
-    <row r="267" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F267" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G267" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L267" s="4"/>
     </row>
-    <row r="268" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F268" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G268" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L268" s="4"/>
     </row>
-    <row r="269" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F269" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G269" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="L269" s="4"/>
     </row>
-    <row r="270" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F270" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G270" s="11" t="s">
+        <v>193</v>
+      </c>
       <c r="L270" s="4"/>
     </row>
-    <row r="271" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L271" s="4"/>
     </row>
-    <row r="272" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C272" t="s">
+        <v>136</v>
+      </c>
+      <c r="D272" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F272" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J272" s="17">
+        <v>43626</v>
+      </c>
       <c r="L272" s="4"/>
     </row>
-    <row r="273" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F273" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G273" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L273" s="4"/>
     </row>
-    <row r="274" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F274" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G274" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L274" s="4"/>
     </row>
-    <row r="275" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F275" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G275" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L275" s="4"/>
     </row>
-    <row r="276" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F276" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G276" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="L276" s="4"/>
     </row>
-    <row r="277" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F277" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G277" s="11" t="s">
+        <v>197</v>
+      </c>
       <c r="L277" s="4"/>
     </row>
-    <row r="278" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A278" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C278" t="s">
+        <v>136</v>
+      </c>
+      <c r="D278" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F278" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L278" s="4"/>
     </row>
-    <row r="279" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F279" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G279" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L279" s="4"/>
     </row>
-    <row r="280" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F280" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G280" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L280" s="4"/>
     </row>
-    <row r="281" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F281" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G281" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L281" s="4"/>
     </row>
-    <row r="282" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F282" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G282" s="11" t="s">
+        <v>191</v>
+      </c>
       <c r="L282" s="4"/>
     </row>
-    <row r="283" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F283" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G283" s="11" t="s">
+        <v>193</v>
+      </c>
       <c r="L283" s="4"/>
     </row>
-    <row r="284" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A284" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C284" t="s">
+        <v>136</v>
+      </c>
+      <c r="D284" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="F284" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L284" s="4"/>
     </row>
-    <row r="285" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F285" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G285" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L285" s="4"/>
     </row>
-    <row r="286" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F286" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G286" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L286" s="4"/>
     </row>
-    <row r="287" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F287" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G287" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L287" s="4"/>
     </row>
-    <row r="288" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F288" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="G288" s="11" t="s">
+        <v>201</v>
+      </c>
       <c r="L288" s="4"/>
     </row>
-    <row r="289" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F289" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G289" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="L289" s="4"/>
     </row>
-    <row r="290" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C290" t="s">
+        <v>136</v>
+      </c>
+      <c r="D290" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F290" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L290" s="4"/>
     </row>
-    <row r="291" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F291" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G291" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L291" s="4"/>
     </row>
-    <row r="292" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F292" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G292" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L292" s="4"/>
     </row>
-    <row r="293" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F293" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G293" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L293" s="4"/>
     </row>
-    <row r="294" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F294" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G294" s="11" t="s">
+        <v>201</v>
+      </c>
       <c r="L294" s="4"/>
     </row>
-    <row r="295" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F295" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G295" s="11" t="s">
+        <v>207</v>
+      </c>
       <c r="L295" s="4"/>
     </row>
-    <row r="296" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C296" t="s">
+        <v>136</v>
+      </c>
+      <c r="D296" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="F296" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L296" s="4"/>
     </row>
-    <row r="297" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F297" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G297" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L297" s="4"/>
     </row>
-    <row r="298" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F298" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G298" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L298" s="4"/>
     </row>
-    <row r="299" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F299" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G299" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L299" s="4"/>
     </row>
-    <row r="300" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F300" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G300" s="11" t="s">
+        <v>201</v>
+      </c>
       <c r="L300" s="4"/>
     </row>
-    <row r="301" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F301" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G301" s="11" t="s">
+        <v>207</v>
+      </c>
       <c r="L301" s="4"/>
     </row>
-    <row r="302" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C302"/>
+      <c r="D302" s="16"/>
       <c r="L302" s="4"/>
     </row>
-    <row r="303" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B303" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C303" t="s">
+        <v>136</v>
+      </c>
+      <c r="D303" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F303" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L303" s="4"/>
     </row>
-    <row r="304" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F304" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G304" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L304" s="4"/>
     </row>
-    <row r="305" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F305" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G305" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L305" s="4"/>
     </row>
-    <row r="306" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F306" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G306" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L306" s="4"/>
     </row>
-    <row r="307" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F307" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G307" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="L307" s="4"/>
     </row>
-    <row r="308" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F308" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G308" s="11" t="s">
+        <v>213</v>
+      </c>
       <c r="L308" s="4"/>
     </row>
-    <row r="309" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L309" s="4"/>
     </row>
-    <row r="310" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A310" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B310" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C310" t="s">
+        <v>136</v>
+      </c>
+      <c r="D310" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F310" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L310" s="4"/>
     </row>
-    <row r="311" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F311" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G311" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L311" s="4"/>
     </row>
-    <row r="312" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F312" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G312" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L312" s="4"/>
     </row>
-    <row r="313" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F313" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G313" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L313" s="4"/>
     </row>
-    <row r="314" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F314" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G314" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="L314" s="4"/>
     </row>
-    <row r="315" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F315" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G315" s="11" t="s">
+        <v>217</v>
+      </c>
       <c r="L315" s="4"/>
     </row>
-    <row r="316" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L316" s="4"/>
     </row>
-    <row r="317" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C317" t="s">
+        <v>136</v>
+      </c>
+      <c r="D317" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F317" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L317" s="4"/>
     </row>
-    <row r="318" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F318" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G318" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L318" s="4"/>
     </row>
-    <row r="319" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F319" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G319" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L319" s="4"/>
     </row>
-    <row r="320" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F320" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G320" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L320" s="4"/>
     </row>
-    <row r="321" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F321" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G321" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="L321" s="4"/>
     </row>
-    <row r="322" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F322" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G322" s="11" t="s">
+        <v>213</v>
+      </c>
       <c r="L322" s="4"/>
     </row>
-    <row r="323" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L323" s="4"/>
     </row>
-    <row r="324" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A324" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B324" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C324" t="s">
+        <v>136</v>
+      </c>
+      <c r="D324" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F324" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L324" s="4"/>
     </row>
-    <row r="325" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F325" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G325" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L325" s="4"/>
     </row>
-    <row r="326" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F326" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G326" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L326" s="4"/>
     </row>
-    <row r="327" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F327" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G327" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L327" s="4"/>
     </row>
-    <row r="328" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F328" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G328" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="L328" s="4"/>
     </row>
-    <row r="329" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F329" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G329" s="11" t="s">
+        <v>224</v>
+      </c>
       <c r="L329" s="4"/>
     </row>
-    <row r="330" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L330" s="4"/>
     </row>
-    <row r="331" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A331" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C331" t="s">
+        <v>136</v>
+      </c>
+      <c r="D331" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F331" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L331" s="4"/>
     </row>
-    <row r="332" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F332" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G332" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L332" s="4"/>
     </row>
-    <row r="333" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F333" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G333" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L333" s="4"/>
     </row>
-    <row r="334" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F334" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G334" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L334" s="4"/>
     </row>
-    <row r="335" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F335" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G335" s="11" t="s">
+        <v>227</v>
+      </c>
       <c r="L335" s="4"/>
     </row>
-    <row r="336" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="F336" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G336" s="11" t="s">
+        <v>230</v>
+      </c>
       <c r="L336" s="4"/>
     </row>
-    <row r="337" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A337" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B337" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C337" t="s">
+        <v>136</v>
+      </c>
+      <c r="D337" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F337" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L337" s="4"/>
     </row>
-    <row r="338" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F338" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G338" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L338" s="4"/>
     </row>
-    <row r="339" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F339" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G339" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L339" s="4"/>
     </row>
-    <row r="340" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F340" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G340" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L340" s="4"/>
     </row>
-    <row r="341" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F341" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G341" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="L341" s="4"/>
     </row>
-    <row r="342" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F342" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="G342" s="11" t="s">
+        <v>232</v>
+      </c>
       <c r="L342" s="4"/>
     </row>
-    <row r="343" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L343" s="4"/>
     </row>
-    <row r="344" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A344" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B344" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C344" t="s">
+        <v>136</v>
+      </c>
+      <c r="D344" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F344" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L344" s="4"/>
     </row>
-    <row r="345" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F345" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G345" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L345" s="4"/>
     </row>
-    <row r="346" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F346" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G346" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L346" s="4"/>
     </row>
-    <row r="347" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F347" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G347" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L347" s="4"/>
     </row>
-    <row r="348" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F348" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G348" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="L348" s="4"/>
     </row>
-    <row r="349" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F349" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G349" s="11" t="s">
+        <v>235</v>
+      </c>
       <c r="L349" s="4"/>
     </row>
-    <row r="350" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L350" s="4"/>
     </row>
-    <row r="351" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A351" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B351" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C351" t="s">
+        <v>136</v>
+      </c>
+      <c r="D351" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F351" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L351" s="4"/>
     </row>
-    <row r="352" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F352" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G352" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L352" s="4"/>
     </row>
-    <row r="353" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F353" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G353" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L353" s="4"/>
     </row>
-    <row r="354" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F354" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G354" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L354" s="4"/>
     </row>
-    <row r="355" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F355" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G355" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="L355" s="4"/>
     </row>
-    <row r="356" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F356" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G356" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="L356" s="4"/>
     </row>
-    <row r="357" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L357" s="4"/>
     </row>
-    <row r="358" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A358" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B358" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C358" t="s">
+        <v>136</v>
+      </c>
+      <c r="D358" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="F358" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L358" s="4"/>
     </row>
-    <row r="359" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F359" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G359" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L359" s="4"/>
     </row>
-    <row r="360" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F360" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G360" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L360" s="4"/>
     </row>
-    <row r="361" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F361" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G361" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L361" s="4"/>
     </row>
-    <row r="362" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F362" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G362" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="L362" s="4"/>
     </row>
-    <row r="363" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F363" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G363" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="L363" s="4"/>
     </row>
-    <row r="364" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L364" s="4"/>
     </row>
-    <row r="365" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A365" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B365" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C365" t="s">
+        <v>136</v>
+      </c>
+      <c r="D365" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F365" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="L365" s="4"/>
     </row>
-    <row r="366" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F366" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G366" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="L366" s="4"/>
     </row>
-    <row r="367" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F367" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G367" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="L367" s="4"/>
     </row>
-    <row r="368" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F368" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G368" s="11" t="s">
+        <v>166</v>
+      </c>
       <c r="L368" s="4"/>
     </row>
-    <row r="369" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="6:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="F369" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G369" s="11" t="s">
+        <v>249</v>
+      </c>
       <c r="L369" s="4"/>
     </row>
-    <row r="370" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="6:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F370" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G370" s="11" t="s">
+        <v>251</v>
+      </c>
       <c r="L370" s="4"/>
     </row>
-    <row r="371" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="6:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F371" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G371" s="11" t="s">
+        <v>253</v>
+      </c>
       <c r="L371" s="4"/>
     </row>
-    <row r="372" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L372" s="4"/>
     </row>
-    <row r="373" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L373" s="4"/>
     </row>
-    <row r="374" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L374" s="4"/>
     </row>
-    <row r="375" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L375" s="4"/>
     </row>
-    <row r="376" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L376" s="4"/>
     </row>
-    <row r="377" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L377" s="4"/>
     </row>
-    <row r="378" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L378" s="4"/>
     </row>
-    <row r="379" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L379" s="4"/>
     </row>
-    <row r="380" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L380" s="4"/>
     </row>
-    <row r="381" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L381" s="4"/>
     </row>
-    <row r="382" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L382" s="4"/>
     </row>
-    <row r="383" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L383" s="4"/>
     </row>
-    <row r="384" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="6:12" x14ac:dyDescent="0.25">
       <c r="L384" s="4"/>
     </row>
     <row r="385" spans="12:12" x14ac:dyDescent="0.25">
@@ -5669,7 +6632,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C649:C718" xr:uid="{BB1FB602-1765-4F63-8427-732A8BF96F64}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84 B87 B108 B97 B104:B105 B94 B2 B7 B10 B13 B17 B20 B24 B27 B31 B34 B39 B42 B48 B51 B56 B59 B65 B68 B75 B78 B112 B115 B125 B122 B133 B143 B152 B163 B173 B184 B195 B206 B218 B225 B233 B241 B249 B256" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84 B87 B108 B97 B104:B105 B94 B2 B7 B10 B13 B17 B20 B24 B27 B31 B34 B39 B42 B48 B51 B56 B59 B65 B68 B75 B78 B112 B115 B125 B122 B133 B143 B152 B163 B173 B184 B195 B206 B218 B225 B233 B241 B249 B256 B265 B272 B278 B284 B290 B296 B302:B303 B310 B317 B324 B331 B337 B344 B351 B358 B365" xr:uid="{2F52606D-49DC-4947-9725-5342D25B1853}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K475:K677" xr:uid="{01AD6F3F-ED6E-4BD4-A56A-48A431009C35}">
